--- a/__tests__/03.AlertsBuffer/data/test.xlsx
+++ b/__tests__/03.AlertsBuffer/data/test.xlsx
@@ -506,17 +506,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1456,7 +1457,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
